--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,6 +1016,260 @@
         <v>0.5555555555555556</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5042016806722689</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5044642857142857</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5021645021645021</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5024875621890548</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0003480993045654434</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.5029585798816568</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.5030674846625767</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.5023041474654378</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.5033557046979866</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.5047169811320755</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.503968253968254</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5047619047619047</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5024630541871922</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.5023041474654378</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.5037593984962406</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.5051020408163265</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,6 +1270,133 @@
         <v>0.5555555555555556</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5024630541871922</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.5023041474654378</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.5051020408163265</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1397,6 +1397,133 @@
         <v>0.5555555555555556</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.02907486850152005</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.5023041474654378</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1524,6 +1524,133 @@
         <v>0.5555555555555556</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5025906735751295</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5027932960893855</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.5033783783783784</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.5023041474654378</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1651,6 +1651,133 @@
         <v>0.5555555555555556</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>09-18</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.5032051282051282</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.5034246575342466</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.5023148148148148</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,6 +1905,133 @@
         <v>0.5178571428571429</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>09-20</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5034246575342466</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5032051282051282</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5023148148148148</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.5028089887640449</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,6 +2032,133 @@
         <v>0.5178571428571429</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5023255813953489</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.5071428571428571</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.5029411764705882</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2159,6 +2159,133 @@
         <v>0.5178571428571429</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5038461538461538</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5024038461538461</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5071428571428571</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5029940119760479</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2286,6 +2286,133 @@
         <v>0.5178571428571429</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>09-25</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5038759689922481</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.5024038461538461</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.5029940119760479</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,6 +2413,514 @@
         <v>0.5178571428571429</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>09-26</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5038759689922481</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5025125628140703</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5030487804878049</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>09-27</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.50390625</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5025125628140703</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.5030864197530864</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>09-28</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.50390625</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5025125628140703</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5030864197530864</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>09-29</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.50390625</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5025125628140703</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.5030864197530864</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU2"/>
+  <dimension ref="A1:EU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1642,6 +1642,463 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5032467532467533</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.307844637289418e-06</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.007390441470717304</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2.69273612975434e-07</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.002863208448511177</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.147899832150877e-08</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0003867770050727149</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.006651397323645573</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.003181342720567975</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.003927583605639475</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.007390441470717304</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.0001498453364392267</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>4.167624208949056e-06</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>2.901494177650545e-09</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1.387775670538305e-09</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>4.838874560120279e-10</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>1.387775670538305e-09</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.007390441470717304</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.003927583605639475</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.008211601634130337</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.003534825245075528</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.004848868648937623</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.01251577752496622</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.0006550102543188112</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.00257688760366006</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>3.038198048323862e-06</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.000313289374108899</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0.0001213747225157736</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>1.846129476167785e-11</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>3.527539554327684e-10</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>1.192799372363521e-12</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0.01907602122384731</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0.003927583605639475</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0.008211601634130337</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0.004363981784043861</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.0002819604366980092</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.02907486850152005</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0.0004775024753984134</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU3"/>
+  <dimension ref="A1:EU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2099,6 +2099,463 @@
         <v>0.405</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>10-02</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5032467532467533</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5035714285714286</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6.352117373798286e-06</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4.232074891437031e-05</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>5.805315351765475e-05</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.006651397323645573</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.5060975609756098</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.5052083333333334</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.5035714285714286</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.5071428571428571</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.005387631832152915</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.01013777979522264</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.000313289374108899</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>4.702305434930034e-05</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1.431030381532777e-07</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>3.038198048323862e-06</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>3.273738503506899e-08</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>4.104155052209023e-07</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.01545157719131632</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.01907602122384731</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.001232517352479036</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.003927583605639475</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>0.0002537643930282083</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0.001109265617231132</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0.0002537643930282083</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>6.255380356971533e-07</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>3.324365592289309e-07</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>4.104155052209023e-07</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0.01545157719131632</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>0.03988322153843628</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>0.01907602122384731</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>0.001690695956761365</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>0.5071428571428571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU4"/>
+  <dimension ref="A1:EU5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2556,6 +2556,463 @@
         <v>0.5071428571428571</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>10-03</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5034013605442177</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.501187648456057</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5035714285714286</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.500945179584121</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5024154589371981</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.000134860802795304</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.01545157719131632</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.5021367521367521</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.5021097046413502</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.5052083333333334</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.5011574074074074</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.01545157719131632</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.001521626361085229</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.0004297522278585721</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>1.614623008999282e-06</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>2.024188301142169e-05</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>3.324365592289309e-07</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>1.794025565554757e-06</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.02907486850152005</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0.001690695956761365</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0.001369463724976706</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>1.993361739505286e-06</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>9.53418740583986e-07</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>2.214846377228096e-06</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>0.03988322153843628</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0.03988322153843628</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>0.5034246575342466</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0.007390441470717304</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU5"/>
+  <dimension ref="A1:EU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,6 +3013,920 @@
         <v>0.5075757575757576</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>10-04</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5034013605442177</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5012019230769231</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5035714285714286</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.500945179584121</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.5024154589371981</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.5009208103130756</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.5023041474654378</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.5021551724137931</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.5021097046413502</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.5052083333333334</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.5036496350364964</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.5011574074074074</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.02907486850152005</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.002087278958964649</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.000898505149957217</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1.195262949941439e-05</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>9.831352523777666e-05</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1.307844637289418e-06</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>6.352117373798286e-06</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0.007390441470717304</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0.001690695956761365</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>2.734378243491476e-06</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>4.167624208949056e-06</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>7.842120214565786e-06</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0.03230540944613339</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0.5034246575342466</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0.5015576323987538</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0.5035211267605634</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-05</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5034013605442177</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5012285012285013</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5035714285714286</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.5009487666034156</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5024154589371981</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.5009208103130756</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.5009328358208955</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.5023041474654378</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.5021929824561403</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.5021097046413502</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.5052083333333334</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.5037037037037037</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.5011574074074074</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.02907486850152005</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.002087278958964649</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.001369463724976706</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1.639592523925157e-05</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.0001213747225157736</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>3.038198048323862e-06</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>1.195262949941439e-05</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.007390441470717304</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0.001109265617231132</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0.009124001815700375</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.001690695956761365</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>4.702305434930034e-05</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>1.475633271532641e-05</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>2.776664336271836e-05</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0.02907486850152005</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0.5034246575342466</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0.5015576323987538</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0.5017857142857143</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU7"/>
+  <dimension ref="A1:EU9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,6 +3927,920 @@
         <v>0.5079365079365079</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>10-06</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5034965034965035</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5012755102040817</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5035714285714286</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.5009487666034156</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5024390243902439</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.5009345794392523</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.5009328358208955</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.5023041474654378</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.5021929824561403</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.5021097046413502</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.5038759689922481</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.5011574074074074</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.004363981784043861</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.003534825245075528</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>3.085182595857596e-05</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.000313289374108899</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>3.750861788054151e-06</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>1.475633271532641e-05</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.02907486850152005</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0.009124001815700375</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0.03230540944613339</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0.001232517352479036</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0.01545157719131632</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0.002863208448511177</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>5.805315351765475e-05</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>2.776664336271836e-05</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>5.224783816588927e-05</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>0.02907486850152005</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0.5043478260869565</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0.5015576323987538</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0.5045045045045045</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5034965034965035</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.5012755102040817</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5035714285714286</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.5009487666034156</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.5024390243902439</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.5009345794392523</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.5009328358208955</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.5023041474654378</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.5066666666666667</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.5021097046413502</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.5011574074074074</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.004363981784043861</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.005387631832152915</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>3.085182595857596e-05</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.000313289374108899</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>7.057908193109206e-06</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>2.498997902644653e-05</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.5054347826086957</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.02907486850152005</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.009124001815700375</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.03230540944613339</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0.001521626361085229</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0.002863208448511177</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>6.450350390850527e-05</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>4.232074891437031e-05</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>8.848217271399898e-05</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0.02907486850152005</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.5043478260869565</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>0.5015576323987538</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0.5045045045045045</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0.5087719298245614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU9"/>
+  <dimension ref="A1:EU14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4841,6 +4841,2291 @@
         <v>0.5087719298245614</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.5014164305949008</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.5025510204081632</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.5010288065843621</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.5024154589371981</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.5023474178403756</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.501187648456057</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.0004297522278585721</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.003927583605639475</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.0001664948182658075</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.0001498453364392267</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0.5047619047619047</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0.5024271844660194</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.5014164305949008</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.5025510204081632</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.5010288065843621</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.5024154589371981</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.5023474178403756</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.501187648456057</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.0004297522278585721</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.004848868648937623</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.0001849942425175638</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.0001498453364392267</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>0.5047619047619047</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>0.5024271844660194</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>10-30</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.5014164305949008</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.5025641025641026</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.5010615711252654</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.5024999999999999</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.501187648456057</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.004848868648937623</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0.000313289374108899</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.0001498453364392267</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0.09265100944259208</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>0.5047619047619047</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>0.5024271844660194</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>10-31</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.5014164305949008</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.5025641025641026</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.5010615711252654</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.5024999999999999</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.501187648456057</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.04923854510918059</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0.004848868648937623</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0.000313289374108899</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.0001664948182658075</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>0.5047619047619047</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>0.5024271844660194</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>11-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5014164305949008</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.5025641025641026</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.5010615711252654</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.5024999999999999</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.501187648456057</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0.004848868648937623</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0.000313289374108899</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.0001664948182658075</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>0.5047619047619047</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU14"/>
+  <dimension ref="A1:EU23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7126,6 +7126,4119 @@
         <v>0.5096153846153846</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>11-02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.5014164305949008</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.5025641025641026</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.5010615711252654</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.5024999999999999</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.501187648456057</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0.005387631832152915</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.000313289374108899</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.0001664948182658075</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>0.5047619047619047</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>11-03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.5010615711252654</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.5024999999999999</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.501187648456057</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0.005387631832152915</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0.000313289374108899</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.0001849942425175638</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>0.50625</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>11-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.5010615711252654</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.5025125628140703</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.5052631578947369</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.501187648456057</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0.005387631832152915</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0.0004297522278585721</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.0002283879537253874</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>11-05</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.501131221719457</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.5025125628140703</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.5053191489361702</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.5012048192771085</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0.05470949456575621</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0.005387631832152915</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0.0004297522278585721</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.0002283879537253874</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>11-06</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.501131221719457</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.5025125628140703</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.5053191489361702</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.5012106537530266</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0.005387631832152915</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0.0004297522278585721</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.0002283879537253874</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>0.5064102564102564</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>11-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.501131221719457</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.5025125628140703</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.5053191489361702</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.5012106537530266</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0.005387631832152915</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0.0004297522278585721</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.0002819604366980092</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>0.5064102564102564</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>11-08</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.501131221719457</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.5025380710659898</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.5053191489361702</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.5012106537530266</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0.005387631832152915</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0.0004297522278585721</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0.0002819604366980092</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET21" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU21" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>11-09</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.501187648456057</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.5025641025641026</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.5059523809523809</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.5053191489361702</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.5012594458438288</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0.006651397323645573</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0.0004297522278585721</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0.000313289374108899</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ22" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET22" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU22" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>11-10</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.5009560229445507</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.5012315270935961</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.5025641025641026</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.5023923444976076</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.5059523809523809</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0.5012594458438288</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0.04431469059826253</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>0.06078832729528467</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0.0005895092288869301</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0.006651397323645573</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0.0004775024753984134</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0.000530558305998237</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>0.5041322314049587</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE23" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="EI23" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO23" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP23" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ23" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="ER23" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="ES23" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ET23" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EU23" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU52"/>
+  <dimension ref="A1:EU63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24492,6 +24492,5033 @@
         <v>0.5192307692307693</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB53" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE53" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG53" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH53" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CI53" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ53" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK53" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL53" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM53" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN53" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO53" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP53" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ53" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR53" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS53" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT53" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU53" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV53" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW53" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX53" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY53" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ53" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA53" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB53" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC53" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD53" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE53" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF53" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG53" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH53" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI53" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK53" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL53" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM53" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN53" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO53" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP53" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ53" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR53" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS53" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU53" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV53" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW53" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX53" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY53" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ53" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA53" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB53" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="EC53" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE53" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF53" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG53" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="EH53" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI53" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ53" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK53" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL53" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM53" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN53" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO53" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP53" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ53" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER53" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES53" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET53" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU53" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>12-11</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY54" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ54" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB54" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CC54" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD54" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE54" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG54" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH54" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CI54" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ54" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK54" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL54" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM54" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN54" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO54" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP54" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ54" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR54" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS54" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT54" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU54" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV54" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW54" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX54" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY54" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ54" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA54" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB54" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC54" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD54" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE54" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF54" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG54" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH54" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="DI54" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DK54" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL54" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM54" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN54" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO54" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP54" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ54" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR54" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS54" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU54" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV54" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW54" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX54" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY54" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ54" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA54" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB54" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC54" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE54" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF54" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG54" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="EH54" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI54" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ54" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK54" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL54" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM54" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN54" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO54" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP54" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ54" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER54" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES54" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET54" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU54" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>12-12</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT55" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB55" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CC55" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE55" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG55" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH55" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CI55" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ55" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK55" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL55" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM55" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN55" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO55" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP55" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ55" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR55" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS55" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT55" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU55" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV55" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW55" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX55" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY55" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ55" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA55" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB55" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC55" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD55" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE55" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF55" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG55" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH55" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI55" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ55" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK55" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL55" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM55" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN55" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO55" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP55" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ55" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR55" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS55" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU55" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV55" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW55" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX55" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY55" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ55" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA55" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB55" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC55" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE55" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF55" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG55" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="EH55" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI55" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ55" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK55" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL55" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM55" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN55" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO55" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP55" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ55" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER55" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES55" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET55" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU55" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE56" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG56" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH56" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CI56" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ56" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK56" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL56" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM56" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN56" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO56" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP56" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ56" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR56" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS56" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT56" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU56" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV56" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW56" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX56" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY56" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ56" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA56" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB56" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC56" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD56" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE56" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF56" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG56" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH56" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI56" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ56" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK56" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL56" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM56" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN56" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO56" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP56" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ56" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR56" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS56" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU56" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV56" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW56" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX56" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY56" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ56" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA56" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB56" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC56" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE56" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF56" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG56" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="EH56" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI56" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ56" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK56" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL56" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM56" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN56" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO56" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EP56" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ56" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER56" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES56" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET56" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU56" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT57" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CC57" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD57" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE57" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG57" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH57" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CI57" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ57" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK57" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL57" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM57" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN57" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO57" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP57" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ57" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR57" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS57" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT57" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU57" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV57" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW57" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX57" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY57" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ57" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA57" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB57" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC57" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD57" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE57" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF57" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG57" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH57" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI57" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ57" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK57" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL57" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM57" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN57" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO57" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP57" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ57" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR57" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS57" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU57" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV57" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW57" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX57" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY57" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ57" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA57" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB57" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC57" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE57" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF57" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG57" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="EH57" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI57" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ57" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK57" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL57" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM57" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN57" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO57" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EP57" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ57" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER57" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES57" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET57" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU57" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>12-15</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ58" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB58" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CC58" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD58" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE58" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF58" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG58" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH58" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CI58" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ58" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK58" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL58" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM58" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN58" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO58" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP58" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ58" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR58" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS58" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT58" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU58" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV58" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW58" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX58" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY58" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ58" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA58" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB58" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC58" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD58" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE58" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF58" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG58" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH58" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI58" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ58" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK58" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL58" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM58" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN58" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO58" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP58" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ58" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR58" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS58" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU58" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV58" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW58" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX58" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY58" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ58" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA58" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB58" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC58" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE58" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF58" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG58" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="EH58" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI58" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ58" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK58" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL58" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM58" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN58" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO58" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EP58" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ58" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER58" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES58" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET58" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU58" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB59" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CC59" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD59" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE59" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG59" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH59" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CI59" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ59" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK59" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL59" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM59" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN59" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO59" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP59" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ59" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR59" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS59" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT59" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU59" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW59" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX59" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY59" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA59" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB59" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC59" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD59" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE59" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF59" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG59" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH59" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI59" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ59" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK59" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL59" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM59" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN59" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO59" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP59" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ59" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR59" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS59" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU59" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV59" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW59" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX59" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY59" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ59" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA59" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB59" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC59" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE59" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF59" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG59" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="EH59" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI59" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ59" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK59" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL59" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM59" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN59" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO59" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EP59" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ59" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER59" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES59" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET59" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU59" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ60" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB60" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CC60" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD60" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE60" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG60" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH60" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CI60" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ60" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK60" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL60" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM60" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN60" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO60" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP60" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ60" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR60" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS60" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT60" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU60" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV60" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW60" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX60" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY60" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ60" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA60" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB60" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC60" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD60" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE60" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF60" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG60" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH60" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI60" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ60" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK60" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL60" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM60" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN60" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO60" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP60" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ60" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR60" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS60" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU60" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV60" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW60" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX60" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY60" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ60" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA60" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB60" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC60" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE60" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF60" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG60" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="EH60" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI60" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ60" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK60" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL60" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM60" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN60" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO60" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EP60" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ60" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER60" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES60" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET60" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU60" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>12-18</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB61" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CC61" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD61" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE61" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG61" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH61" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CI61" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ61" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK61" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL61" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM61" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN61" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO61" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP61" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ61" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR61" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS61" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT61" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU61" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV61" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW61" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX61" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY61" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ61" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA61" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB61" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC61" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD61" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE61" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF61" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG61" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH61" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI61" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ61" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK61" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL61" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM61" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN61" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO61" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP61" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ61" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR61" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS61" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU61" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV61" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW61" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX61" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY61" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ61" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA61" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB61" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC61" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE61" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF61" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG61" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="EH61" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI61" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ61" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK61" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL61" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM61" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN61" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO61" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EP61" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ61" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER61" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES61" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET61" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU61" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>12-19</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ62" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB62" t="n">
+        <v>0.005986257591281016</v>
+      </c>
+      <c r="CC62" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD62" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE62" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF62" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG62" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH62" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CI62" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ62" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK62" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL62" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM62" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN62" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO62" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP62" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ62" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR62" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS62" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT62" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU62" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV62" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW62" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX62" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY62" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ62" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA62" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB62" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC62" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD62" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE62" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF62" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG62" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH62" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI62" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ62" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK62" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL62" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM62" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN62" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO62" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP62" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ62" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR62" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS62" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU62" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV62" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW62" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX62" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY62" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ62" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA62" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB62" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC62" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE62" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF62" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG62" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="EH62" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI62" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ62" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK62" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL62" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM62" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN62" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO62" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EP62" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ62" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER62" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES62" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET62" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU62" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>12-20</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.5012531328320802</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.5009363295880149</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0.5026041666666666</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.5024509803921569</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0.5014450867052023</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0.2152336050000001</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT63" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>0.0112641997724696</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>0.0007277891714653458</v>
+      </c>
+      <c r="CB63" t="n">
+        <v>0.006651397323645573</v>
+      </c>
+      <c r="CC63" t="n">
+        <v>0.5004812319538018</v>
+      </c>
+      <c r="CD63" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE63" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="CG63" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH63" t="n">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="CI63" t="n">
+        <v>0.32805</v>
+      </c>
+      <c r="CJ63" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="CK63" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL63" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM63" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN63" t="n">
+        <v>0.5002787068004459</v>
+      </c>
+      <c r="CO63" t="n">
+        <v>0.5002939447383892</v>
+      </c>
+      <c r="CP63" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ63" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="CR63" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CS63" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CT63" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="CU63" t="n">
+        <v>0.1937102445</v>
+      </c>
+      <c r="CV63" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW63" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX63" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CY63" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ63" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA63" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB63" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="DC63" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DD63" t="n">
+        <v>0.5001648532805802</v>
+      </c>
+      <c r="DE63" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF63" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG63" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH63" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI63" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ63" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK63" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL63" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="DM63" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN63" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DO63" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP63" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="DQ63" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR63" t="n">
+        <v>0.5046296296296297</v>
+      </c>
+      <c r="DS63" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DT63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DU63" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="DV63" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DW63" t="n">
+        <v>0.2657205</v>
+      </c>
+      <c r="DX63" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DY63" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="DZ63" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA63" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB63" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC63" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE63" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF63" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG63" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="EH63" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI63" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ63" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EK63" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL63" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM63" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN63" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="EO63" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EP63" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ63" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER63" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="ES63" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET63" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU63" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU90"/>
+  <dimension ref="A1:EU94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41858,6 +41858,1834 @@
         <v>0.5192307692307693</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>01-17</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.5009633911368016</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0.5012562814070352</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>0.5009823182711198</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0.5026455026455027</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.502283105022831</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>0.5016077170418006</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>0.5029585798816568</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>0.5026737967914439</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="BQ91" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR91" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS91" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT91" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="BV91" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW91" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX91" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="BY91" t="n">
+        <v>0.001109265617231132</v>
+      </c>
+      <c r="BZ91" t="n">
+        <v>0.01251577752496622</v>
+      </c>
+      <c r="CA91" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="CB91" t="n">
+        <v>0.01716841910146258</v>
+      </c>
+      <c r="CC91" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="CD91" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE91" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="CF91" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="CG91" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH91" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="CI91" t="n">
+        <v>0.5032894736842105</v>
+      </c>
+      <c r="CJ91" t="n">
+        <v>0.5042372881355932</v>
+      </c>
+      <c r="CK91" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL91" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM91" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN91" t="n">
+        <v>0.5003130870381967</v>
+      </c>
+      <c r="CO91" t="n">
+        <v>0.5003382949932341</v>
+      </c>
+      <c r="CP91" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ91" t="n">
+        <v>0.5025380710659898</v>
+      </c>
+      <c r="CR91" t="n">
+        <v>0.5028409090909091</v>
+      </c>
+      <c r="CS91" t="n">
+        <v>0.23914845</v>
+      </c>
+      <c r="CT91" t="n">
+        <v>0.156905298045</v>
+      </c>
+      <c r="CU91" t="n">
+        <v>0.5029585798816568</v>
+      </c>
+      <c r="CV91" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW91" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX91" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="CY91" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ91" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA91" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB91" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DC91" t="n">
+        <v>0.12709329141645</v>
+      </c>
+      <c r="DD91" t="n">
+        <v>0.5001701837985024</v>
+      </c>
+      <c r="DE91" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF91" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG91" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH91" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI91" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ91" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK91" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL91" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="DM91" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN91" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="DO91" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP91" t="n">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="DQ91" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR91" t="n">
+        <v>0.5047169811320755</v>
+      </c>
+      <c r="DS91" t="n">
+        <v>0.5032679738562091</v>
+      </c>
+      <c r="DT91" t="n">
+        <v>0.5018796992481203</v>
+      </c>
+      <c r="DU91" t="n">
+        <v>0.5027027027027027</v>
+      </c>
+      <c r="DV91" t="n">
+        <v>0.5029411764705882</v>
+      </c>
+      <c r="DW91" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="DX91" t="n">
+        <v>0.5026595744680851</v>
+      </c>
+      <c r="DY91" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="DZ91" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA91" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB91" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC91" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED91" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE91" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF91" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG91" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="EH91" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI91" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ91" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="EK91" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL91" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM91" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN91" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="EO91" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EP91" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ91" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER91" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="ES91" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET91" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU91" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>01-18</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0.5009633911368016</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0.5025773195876289</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>0.5005181347150259</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>0.5012562814070352</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>0.5009823182711198</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0.5026455026455027</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.502283105022831</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>0.5023696682464455</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0.5032258064516129</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>0.5016077170418006</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0.5029585798816568</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0.5024271844660194</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>0.5026737967914439</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>0.1029455660473245</v>
+      </c>
+      <c r="BQ92" t="n">
+        <v>0.5003961965134707</v>
+      </c>
+      <c r="BR92" t="n">
+        <v>0.5020161290322581</v>
+      </c>
+      <c r="BS92" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT92" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="BV92" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW92" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="BX92" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="BY92" t="n">
+        <v>0.001232517352479036</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>0.01390641947218469</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>0.0009983390555080188</v>
+      </c>
+      <c r="CB92" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="CC92" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="CD92" t="n">
+        <v>0.5003690036900369</v>
+      </c>
+      <c r="CE92" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="CF92" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="CG92" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH92" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="CI92" t="n">
+        <v>0.5033557046979866</v>
+      </c>
+      <c r="CJ92" t="n">
+        <v>0.5042372881355932</v>
+      </c>
+      <c r="CK92" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL92" t="n">
+        <v>0.5008488964346349</v>
+      </c>
+      <c r="CM92" t="n">
+        <v>0.5004699248120301</v>
+      </c>
+      <c r="CN92" t="n">
+        <v>0.5003236245954693</v>
+      </c>
+      <c r="CO92" t="n">
+        <v>0.5003644314868805</v>
+      </c>
+      <c r="CP92" t="n">
+        <v>0.5002776235424764</v>
+      </c>
+      <c r="CQ92" t="n">
+        <v>0.5025380710659898</v>
+      </c>
+      <c r="CR92" t="n">
+        <v>0.5028409090909091</v>
+      </c>
+      <c r="CS92" t="n">
+        <v>0.5025252525252525</v>
+      </c>
+      <c r="CT92" t="n">
+        <v>0.5024038461538461</v>
+      </c>
+      <c r="CU92" t="n">
+        <v>0.5029585798816568</v>
+      </c>
+      <c r="CV92" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW92" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX92" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="CY92" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ92" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA92" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB92" t="n">
+        <v>0.17433922005</v>
+      </c>
+      <c r="DC92" t="n">
+        <v>0.5014619883040936</v>
+      </c>
+      <c r="DD92" t="n">
+        <v>0.5001749475157453</v>
+      </c>
+      <c r="DE92" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF92" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG92" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH92" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI92" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ92" t="n">
+        <v>0.501002004008016</v>
+      </c>
+      <c r="DK92" t="n">
+        <v>0.06754258588364964</v>
+      </c>
+      <c r="DL92" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="DM92" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="DN92" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="DO92" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP92" t="n">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="DQ92" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR92" t="n">
+        <v>0.5047169811320755</v>
+      </c>
+      <c r="DS92" t="n">
+        <v>0.5032679738562091</v>
+      </c>
+      <c r="DT92" t="n">
+        <v>0.5018796992481203</v>
+      </c>
+      <c r="DU92" t="n">
+        <v>0.5027027027027027</v>
+      </c>
+      <c r="DV92" t="n">
+        <v>0.5029411764705882</v>
+      </c>
+      <c r="DW92" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="DX92" t="n">
+        <v>0.5026595744680851</v>
+      </c>
+      <c r="DY92" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="DZ92" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA92" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB92" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC92" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED92" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE92" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF92" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG92" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="EH92" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI92" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ92" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="EK92" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL92" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM92" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN92" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="EO92" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EP92" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ92" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER92" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="ES92" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET92" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU92" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>01-19</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.5038461538461538</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.5037037037037037</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.5017985611510791</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.5039370078740157</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.5014204545454546</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0.5030674846625767</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>0.5006684491978609</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0.5012594458438288</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>0.5009842519685039</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0.5026455026455027</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.5022935779816514</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.5024875621890548</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>0.5023809523809524</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>0.5027624309392266</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0.5032467532467533</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>0.5016129032258064</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>0.5029585798816568</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0.5024271844660194</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0.5022421524663677</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>0.5026737967914439</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>0.1412147682405001</v>
+      </c>
+      <c r="BQ93" t="n">
+        <v>0.5003965107057891</v>
+      </c>
+      <c r="BR93" t="n">
+        <v>0.5020242914979757</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="BT93" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="BV93" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="BW93" t="n">
+        <v>0.5113636363636364</v>
+      </c>
+      <c r="BX93" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="BY93" t="n">
+        <v>0.001521626361085229</v>
+      </c>
+      <c r="BZ93" t="n">
+        <v>0.01545157719131632</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>0.001232517352479036</v>
+      </c>
+      <c r="CB93" t="n">
+        <v>0.02119557913760812</v>
+      </c>
+      <c r="CC93" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="CD93" t="n">
+        <v>0.5003692762186115</v>
+      </c>
+      <c r="CE93" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="CG93" t="n">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="CH93" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="CI93" t="n">
+        <v>0.5033557046979866</v>
+      </c>
+      <c r="CJ93" t="n">
+        <v>0.5042372881355932</v>
+      </c>
+      <c r="CK93" t="n">
+        <v>0.5035971223021583</v>
+      </c>
+      <c r="CL93" t="n">
+        <v>0.5008503401360545</v>
+      </c>
+      <c r="CM93" t="n">
+        <v>0.5004703668861712</v>
+      </c>
+      <c r="CN93" t="n">
+        <v>0.5003508771929824</v>
+      </c>
+      <c r="CO93" t="n">
+        <v>0.5003644314868805</v>
+      </c>
+      <c r="CP93" t="n">
+        <v>0.5002777777777778</v>
+      </c>
+      <c r="CQ93" t="n">
+        <v>0.5025510204081632</v>
+      </c>
+      <c r="CR93" t="n">
+        <v>0.5028409090909091</v>
+      </c>
+      <c r="CS93" t="n">
+        <v>0.5025252525252525</v>
+      </c>
+      <c r="CT93" t="n">
+        <v>0.5024038461538461</v>
+      </c>
+      <c r="CU93" t="n">
+        <v>0.5029585798816568</v>
+      </c>
+      <c r="CV93" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW93" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX93" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="CY93" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="CZ93" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA93" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DB93" t="n">
+        <v>0.5014492753623189</v>
+      </c>
+      <c r="DC93" t="n">
+        <v>0.5015105740181269</v>
+      </c>
+      <c r="DD93" t="n">
+        <v>0.5001790830945558</v>
+      </c>
+      <c r="DE93" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="DF93" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG93" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DH93" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="DI93" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="DJ93" t="n">
+        <v>0.501004016064257</v>
+      </c>
+      <c r="DK93" t="n">
+        <v>0.114383962274805</v>
+      </c>
+      <c r="DL93" t="n">
+        <v>0.02616738165136805</v>
+      </c>
+      <c r="DM93" t="n">
+        <v>0.03589489938459265</v>
+      </c>
+      <c r="DN93" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="DO93" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="DP93" t="n">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="DQ93" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="DR93" t="n">
+        <v>0.5047169811320755</v>
+      </c>
+      <c r="DS93" t="n">
+        <v>0.5032894736842105</v>
+      </c>
+      <c r="DT93" t="n">
+        <v>0.5018867924528302</v>
+      </c>
+      <c r="DU93" t="n">
+        <v>0.5027027027027027</v>
+      </c>
+      <c r="DV93" t="n">
+        <v>0.5029411764705882</v>
+      </c>
+      <c r="DW93" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="DX93" t="n">
+        <v>0.5026595744680851</v>
+      </c>
+      <c r="DY93" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="DZ93" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA93" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="EB93" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC93" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="ED93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE93" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF93" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG93" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="EH93" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="EI93" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ93" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="EK93" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL93" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM93" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN93" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="EO93" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="EP93" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="EQ93" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER93" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="ES93" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET93" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU93" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.5038461538461538</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.5037037037037037</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.5017985611510791</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.5039370078740157</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0.5014204545454546</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0.5030674846625767</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>0.5007645259938838</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>0.5013477088948787</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>0.5012658227848101</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0.5026595744680851</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.5022935779816514</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.5024999999999999</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>0.5023809523809524</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>0.5027624309392266</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>0.5032467532467533</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>0.5016447368421053</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>0.5029761904761905</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>0.5024271844660194</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>0.5022522522522522</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>0.5026881720430108</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>0.5016339869281046</v>
+      </c>
+      <c r="BQ94" t="n">
+        <v>0.5003965107057891</v>
+      </c>
+      <c r="BR94" t="n">
+        <v>0.5020242914979757</v>
+      </c>
+      <c r="BS94" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="BT94" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="BV94" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="BW94" t="n">
+        <v>0.5113636363636364</v>
+      </c>
+      <c r="BX94" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="BY94" t="n">
+        <v>0.5010989010989011</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>0.5010288065843621</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>0.002319198843294054</v>
+      </c>
+      <c r="CB94" t="n">
+        <v>0.02355064348623124</v>
+      </c>
+      <c r="CC94" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CD94" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="CE94" t="n">
+        <v>0.5040322580645161</v>
+      </c>
+      <c r="CF94" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="CG94" t="n">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="CH94" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="CI94" t="n">
+        <v>0.5033557046979866</v>
+      </c>
+      <c r="CJ94" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="CK94" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="CL94" t="n">
+        <v>0.5008503401360545</v>
+      </c>
+      <c r="CM94" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="CN94" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="CO94" t="n">
+        <v>0.5003644314868805</v>
+      </c>
+      <c r="CP94" t="n">
+        <v>0.5002777777777778</v>
+      </c>
+      <c r="CQ94" t="n">
+        <v>0.5025510204081632</v>
+      </c>
+      <c r="CR94" t="n">
+        <v>0.5028571428571429</v>
+      </c>
+      <c r="CS94" t="n">
+        <v>0.5025380710659898</v>
+      </c>
+      <c r="CT94" t="n">
+        <v>0.5024154589371981</v>
+      </c>
+      <c r="CU94" t="n">
+        <v>0.5029761904761905</v>
+      </c>
+      <c r="CV94" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW94" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX94" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="CY94" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="CZ94" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA94" t="n">
+        <v>0.5058823529411764</v>
+      </c>
+      <c r="DB94" t="n">
+        <v>0.5014492753623189</v>
+      </c>
+      <c r="DC94" t="n">
+        <v>0.5015105740181269</v>
+      </c>
+      <c r="DD94" t="n">
+        <v>0.5001793400286944</v>
+      </c>
+      <c r="DE94" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="DF94" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG94" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="DH94" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="DI94" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="DJ94" t="n">
+        <v>0.501004016064257</v>
+      </c>
+      <c r="DK94" t="n">
+        <v>0.295245</v>
+      </c>
+      <c r="DL94" t="n">
+        <v>0.07504731764849959</v>
+      </c>
+      <c r="DM94" t="n">
+        <v>0.08338590849833288</v>
+      </c>
+      <c r="DN94" t="n">
+        <v>0.5051020408163265</v>
+      </c>
+      <c r="DO94" t="n">
+        <v>0.504424778761062</v>
+      </c>
+      <c r="DP94" t="n">
+        <v>0.50625</v>
+      </c>
+      <c r="DQ94" t="n">
+        <v>0.5043478260869565</v>
+      </c>
+      <c r="DR94" t="n">
+        <v>0.5047619047619047</v>
+      </c>
+      <c r="DS94" t="n">
+        <v>0.5032894736842105</v>
+      </c>
+      <c r="DT94" t="n">
+        <v>0.5018867924528302</v>
+      </c>
+      <c r="DU94" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="DV94" t="n">
+        <v>0.5029411764705882</v>
+      </c>
+      <c r="DW94" t="n">
+        <v>0.5036496350364964</v>
+      </c>
+      <c r="DX94" t="n">
+        <v>0.5026737967914439</v>
+      </c>
+      <c r="DY94" t="n">
+        <v>0.5027932960893855</v>
+      </c>
+      <c r="DZ94" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA94" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="EB94" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC94" t="n">
+        <v>0.5031645569620253</v>
+      </c>
+      <c r="ED94" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE94" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF94" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG94" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="EH94" t="n">
+        <v>0.5027932960893855</v>
+      </c>
+      <c r="EI94" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ94" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="EK94" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL94" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM94" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN94" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="EO94" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="EP94" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="EQ94" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER94" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="ES94" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET94" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU94" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU94"/>
+  <dimension ref="A1:EU95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43686,6 +43686,463 @@
         <v>0.5192307692307693</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.5038759689922481</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.5028901734104047</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0.5015974440894568</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0.5035211267605634</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>0.5007645259938838</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0.501432664756447</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>0.5030864197530864</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>0.5113636363636364</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0.5038759689922481</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.5038461538461538</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>0.5044642857142857</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0.5037593984962406</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>0.5027322404371585</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>0.503030303030303</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0.5027472527472527</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0.5026595744680851</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>0.5031446540880503</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>0.5019607843137255</v>
+      </c>
+      <c r="BQ95" t="n">
+        <v>0.5003965107057891</v>
+      </c>
+      <c r="BR95" t="n">
+        <v>0.5020242914979757</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="BT95" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="BV95" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BW95" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="BX95" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="BY95" t="n">
+        <v>0.5011627906976744</v>
+      </c>
+      <c r="BZ95" t="n">
+        <v>0.5010526315789474</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>0.5011709601873536</v>
+      </c>
+      <c r="CB95" t="n">
+        <v>0.5011086474501109</v>
+      </c>
+      <c r="CC95" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="CD95" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="CE95" t="n">
+        <v>0.504424778761062</v>
+      </c>
+      <c r="CF95" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="CG95" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="CH95" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="CI95" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="CJ95" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="CK95" t="n">
+        <v>0.5040322580645161</v>
+      </c>
+      <c r="CL95" t="n">
+        <v>0.5008503401360545</v>
+      </c>
+      <c r="CM95" t="n">
+        <v>0.5054945054945055</v>
+      </c>
+      <c r="CN95" t="n">
+        <v>0.5040983606557377</v>
+      </c>
+      <c r="CO95" t="n">
+        <v>0.5003770739064857</v>
+      </c>
+      <c r="CP95" t="n">
+        <v>0.5003644314868805</v>
+      </c>
+      <c r="CQ95" t="n">
+        <v>0.5028735632183908</v>
+      </c>
+      <c r="CR95" t="n">
+        <v>0.5033783783783784</v>
+      </c>
+      <c r="CS95" t="n">
+        <v>0.5028571428571429</v>
+      </c>
+      <c r="CT95" t="n">
+        <v>0.5027624309392266</v>
+      </c>
+      <c r="CU95" t="n">
+        <v>0.5032467532467533</v>
+      </c>
+      <c r="CV95" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW95" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX95" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="CY95" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="CZ95" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA95" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="DB95" t="n">
+        <v>0.5016949152542373</v>
+      </c>
+      <c r="DC95" t="n">
+        <v>0.5015151515151515</v>
+      </c>
+      <c r="DD95" t="n">
+        <v>0.5017921146953405</v>
+      </c>
+      <c r="DE95" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="DF95" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="DG95" t="n">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="DH95" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+      <c r="DI95" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="DJ95" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="DK95" t="n">
+        <v>0.5014204545454546</v>
+      </c>
+      <c r="DL95" t="n">
+        <v>0.5009074410163339</v>
+      </c>
+      <c r="DM95" t="n">
+        <v>0.5013123359580053</v>
+      </c>
+      <c r="DN95" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="DO95" t="n">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="DP95" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="DQ95" t="n">
+        <v>0.5047619047619047</v>
+      </c>
+      <c r="DR95" t="n">
+        <v>0.5053191489361702</v>
+      </c>
+      <c r="DS95" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="DT95" t="n">
+        <v>0.5021008403361344</v>
+      </c>
+      <c r="DU95" t="n">
+        <v>0.5027624309392266</v>
+      </c>
+      <c r="DV95" t="n">
+        <v>0.5033333333333333</v>
+      </c>
+      <c r="DW95" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="DX95" t="n">
+        <v>0.5031645569620253</v>
+      </c>
+      <c r="DY95" t="n">
+        <v>0.5030864197530864</v>
+      </c>
+      <c r="DZ95" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA95" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="EB95" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC95" t="n">
+        <v>0.5036764705882353</v>
+      </c>
+      <c r="ED95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE95" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF95" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG95" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="EH95" t="n">
+        <v>0.503125</v>
+      </c>
+      <c r="EI95" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ95" t="n">
+        <v>0.5113636363636364</v>
+      </c>
+      <c r="EK95" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL95" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM95" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN95" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="EO95" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="EP95" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="EQ95" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="ER95" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="ES95" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET95" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU95" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU95"/>
+  <dimension ref="A1:EU98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44143,6 +44143,1377 @@
         <v>0.52</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>01-22</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.5053191489361702</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.5040983606557377</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0.501984126984127</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0.5007645259938838</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0.5022727272727273</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>0.5012919896640827</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.5054945054945055</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>0.5055555555555555</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0.5032894736842105</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>0.5064102564102564</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>0.5029761904761905</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0.5024271844660194</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0.5030674846625767</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>0.5033112582781457</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>0.5016339869281046</v>
+      </c>
+      <c r="BQ96" t="n">
+        <v>0.5017123287671232</v>
+      </c>
+      <c r="BR96" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BT96" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="BV96" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BW96" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BX96" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="BY96" t="n">
+        <v>0.5012468827930174</v>
+      </c>
+      <c r="BZ96" t="n">
+        <v>0.5010288065843621</v>
+      </c>
+      <c r="CA96" t="n">
+        <v>0.5012658227848101</v>
+      </c>
+      <c r="CB96" t="n">
+        <v>0.5012106537530266</v>
+      </c>
+      <c r="CC96" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="CD96" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="CE96" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="CF96" t="n">
+        <v>0.5131578947368421</v>
+      </c>
+      <c r="CG96" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="CH96" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="CI96" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="CJ96" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="CK96" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="CL96" t="n">
+        <v>0.5008503401360545</v>
+      </c>
+      <c r="CM96" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="CN96" t="n">
+        <v>0.5052631578947369</v>
+      </c>
+      <c r="CO96" t="n">
+        <v>0.503448275862069</v>
+      </c>
+      <c r="CP96" t="n">
+        <v>0.5052083333333334</v>
+      </c>
+      <c r="CQ96" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="CR96" t="n">
+        <v>0.5028571428571429</v>
+      </c>
+      <c r="CS96" t="n">
+        <v>0.5026455026455027</v>
+      </c>
+      <c r="CT96" t="n">
+        <v>0.5024154589371981</v>
+      </c>
+      <c r="CU96" t="n">
+        <v>0.5031645569620253</v>
+      </c>
+      <c r="CV96" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW96" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX96" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="CY96" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CZ96" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA96" t="n">
+        <v>0.5066666666666667</v>
+      </c>
+      <c r="DB96" t="n">
+        <v>0.5018867924528302</v>
+      </c>
+      <c r="DC96" t="n">
+        <v>0.5018587360594795</v>
+      </c>
+      <c r="DD96" t="n">
+        <v>0.5020325203252033</v>
+      </c>
+      <c r="DE96" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="DF96" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="DG96" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="DH96" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="DI96" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="DJ96" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="DK96" t="n">
+        <v>0.5014204545454546</v>
+      </c>
+      <c r="DL96" t="n">
+        <v>0.5009615384615385</v>
+      </c>
+      <c r="DM96" t="n">
+        <v>0.5014005602240896</v>
+      </c>
+      <c r="DN96" t="n">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="DO96" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="DP96" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="DQ96" t="n">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="DR96" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="DS96" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="DT96" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="DU96" t="n">
+        <v>0.5037037037037037</v>
+      </c>
+      <c r="DV96" t="n">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="DW96" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="DX96" t="n">
+        <v>0.5040650406504065</v>
+      </c>
+      <c r="DY96" t="n">
+        <v>0.5045045045045045</v>
+      </c>
+      <c r="DZ96" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="EA96" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="EB96" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="EC96" t="n">
+        <v>0.5051020408163265</v>
+      </c>
+      <c r="ED96" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE96" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF96" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG96" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="EH96" t="n">
+        <v>0.5028571428571429</v>
+      </c>
+      <c r="EI96" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ96" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="EK96" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL96" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM96" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN96" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EO96" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EP96" t="n">
+        <v>0.5060975609756098</v>
+      </c>
+      <c r="EQ96" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="ER96" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="ES96" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET96" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU96" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>01-23</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.5053191489361702</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.5051020408163265</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0.5021834061135371</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0.5014925373134328</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0.5029585798816568</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>0.5015673981191222</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>0.5116279069767442</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0.5034013605442177</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0.50390625</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>0.5039370078740157</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>0.5037878787878788</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>0.5024875621890548</v>
+      </c>
+      <c r="BQ97" t="n">
+        <v>0.5023255813953489</v>
+      </c>
+      <c r="BR97" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="BS97" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="BT97" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BV97" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="BW97" t="n">
+        <v>0.5113636363636364</v>
+      </c>
+      <c r="BX97" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="BY97" t="n">
+        <v>0.5014367816091954</v>
+      </c>
+      <c r="BZ97" t="n">
+        <v>0.5012048192771085</v>
+      </c>
+      <c r="CA97" t="n">
+        <v>0.5015243902439024</v>
+      </c>
+      <c r="CB97" t="n">
+        <v>0.5015243902439024</v>
+      </c>
+      <c r="CC97" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="CD97" t="n">
+        <v>0.5106382978723404</v>
+      </c>
+      <c r="CE97" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="CF97" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="CG97" t="n">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="CH97" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="CI97" t="n">
+        <v>0.5033557046979866</v>
+      </c>
+      <c r="CJ97" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="CK97" t="n">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="CL97" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="CM97" t="n">
+        <v>0.5046728971962616</v>
+      </c>
+      <c r="CN97" t="n">
+        <v>0.5059523809523809</v>
+      </c>
+      <c r="CO97" t="n">
+        <v>0.5038167938931297</v>
+      </c>
+      <c r="CP97" t="n">
+        <v>0.5038759689922481</v>
+      </c>
+      <c r="CQ97" t="n">
+        <v>0.5043478260869565</v>
+      </c>
+      <c r="CR97" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="CS97" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="CT97" t="n">
+        <v>0.503448275862069</v>
+      </c>
+      <c r="CU97" t="n">
+        <v>0.5043103448275862</v>
+      </c>
+      <c r="CV97" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW97" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="CX97" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="CY97" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="CZ97" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA97" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="DB97" t="n">
+        <v>0.5022321428571429</v>
+      </c>
+      <c r="DC97" t="n">
+        <v>0.5021645021645021</v>
+      </c>
+      <c r="DD97" t="n">
+        <v>0.5023364485981309</v>
+      </c>
+      <c r="DE97" t="n">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="DF97" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="DG97" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="DH97" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="DI97" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="DJ97" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="DK97" t="n">
+        <v>0.5014204545454546</v>
+      </c>
+      <c r="DL97" t="n">
+        <v>0.5012048192771085</v>
+      </c>
+      <c r="DM97" t="n">
+        <v>0.501453488372093</v>
+      </c>
+      <c r="DN97" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DO97" t="n">
+        <v>0.504424778761062</v>
+      </c>
+      <c r="DP97" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="DQ97" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="DR97" t="n">
+        <v>0.5047619047619047</v>
+      </c>
+      <c r="DS97" t="n">
+        <v>0.5032894736842105</v>
+      </c>
+      <c r="DT97" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+      <c r="DU97" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="DV97" t="n">
+        <v>0.5060975609756098</v>
+      </c>
+      <c r="DW97" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="DX97" t="n">
+        <v>0.5043478260869565</v>
+      </c>
+      <c r="DY97" t="n">
+        <v>0.5027932960893855</v>
+      </c>
+      <c r="DZ97" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="EA97" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="EB97" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="EC97" t="n">
+        <v>0.5052631578947369</v>
+      </c>
+      <c r="ED97" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE97" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF97" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG97" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="EH97" t="n">
+        <v>0.5043478260869565</v>
+      </c>
+      <c r="EI97" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EJ97" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="EK97" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL97" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EM97" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN97" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="EO97" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="EP97" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="EQ97" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ER97" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="ES97" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ET97" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU97" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>01-24</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.5051020408163265</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.5051020408163265</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0.5025252525252525</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0.5045871559633027</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>0.502092050209205</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>0.5038461538461538</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>0.5018181818181818</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.5067567567567568</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.5096153846153846</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0.5060240963855421</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0.5113636363636364</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>0.5073529411764706</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>0.5080645161290323</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>0.5043859649122807</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>0.50390625</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>0.5044642857142857</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>0.5027624309392266</v>
+      </c>
+      <c r="BQ98" t="n">
+        <v>0.5026178010471204</v>
+      </c>
+      <c r="BR98" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="BS98" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="BT98" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="BV98" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="BW98" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BX98" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="BY98" t="n">
+        <v>0.5015015015015015</v>
+      </c>
+      <c r="BZ98" t="n">
+        <v>0.5015105740181269</v>
+      </c>
+      <c r="CA98" t="n">
+        <v>0.5016077170418006</v>
+      </c>
+      <c r="CB98" t="n">
+        <v>0.5016025641025641</v>
+      </c>
+      <c r="CC98" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="CD98" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="CE98" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="CF98" t="n">
+        <v>0.5147058823529411</v>
+      </c>
+      <c r="CG98" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="CH98" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="CI98" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="CJ98" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="CK98" t="n">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="CL98" t="n">
+        <v>0.5089285714285714</v>
+      </c>
+      <c r="CM98" t="n">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="CN98" t="n">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="CO98" t="n">
+        <v>0.5045454545454545</v>
+      </c>
+      <c r="CP98" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+      <c r="CQ98" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+      <c r="CR98" t="n">
+        <v>0.5049019607843137</v>
+      </c>
+      <c r="CS98" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="CT98" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="CU98" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+      <c r="CV98" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CW98" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="CX98" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="CY98" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="CZ98" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="DA98" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="DB98" t="n">
+        <v>0.5032051282051282</v>
+      </c>
+      <c r="DC98" t="n">
+        <v>0.5029069767441861</v>
+      </c>
+      <c r="DD98" t="n">
+        <v>0.5027173913043478</v>
+      </c>
+      <c r="DE98" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="DF98" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="DG98" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="DH98" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="DI98" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="DJ98" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="DK98" t="n">
+        <v>0.5016835016835017</v>
+      </c>
+      <c r="DL98" t="n">
+        <v>0.5013774104683195</v>
+      </c>
+      <c r="DM98" t="n">
+        <v>0.5015015015015015</v>
+      </c>
+      <c r="DN98" t="n">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="DO98" t="n">
+        <v>0.5108695652173914</v>
+      </c>
+      <c r="DP98" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="DQ98" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="DR98" t="n">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="DS98" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="DT98" t="n">
+        <v>0.5071428571428571</v>
+      </c>
+      <c r="DU98" t="n">
+        <v>0.5086206896551724</v>
+      </c>
+      <c r="DV98" t="n">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="DW98" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="DX98" t="n">
+        <v>0.5048076923076923</v>
+      </c>
+      <c r="DY98" t="n">
+        <v>0.5056818181818182</v>
+      </c>
+      <c r="DZ98" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="EA98" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="EB98" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="EC98" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="ED98" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EE98" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EF98" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EG98" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="EH98" t="n">
+        <v>0.5046728971962616</v>
+      </c>
+      <c r="EI98" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="EJ98" t="n">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="EK98" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="EL98" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="EM98" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="EN98" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="EO98" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EP98" t="n">
+        <v>0.5060975609756098</v>
+      </c>
+      <c r="EQ98" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="ER98" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="ES98" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="ET98" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="EU98" t="n">
+        <v>0.5238095238095238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
